--- a/Tidsplan - Realiseret.xlsx
+++ b/Tidsplan - Realiseret.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mg\Desktop\Svendeproeve\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0017AAC6-2A89-4FCE-9C3B-62259C9820D7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EED1E890-31C1-4CD7-8967-D7AB21B9969B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -210,7 +210,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="59">
+  <fills count="60">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -696,6 +696,12 @@
     <fill>
       <patternFill patternType="darkUp">
         <fgColor theme="8" tint="0.39994506668294322"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="darkUp">
+        <fgColor theme="5" tint="0.39994506668294322"/>
         <bgColor indexed="65"/>
       </patternFill>
     </fill>
@@ -1006,7 +1012,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="80">
+  <cellXfs count="81">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
@@ -1097,6 +1103,7 @@
     <xf numFmtId="0" fontId="0" fillId="58" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="55" borderId="22" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="55" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="59" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1386,7 +1393,7 @@
   <dimension ref="B1:AG29"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G11" sqref="G11"/>
+      <selection activeCell="M29" sqref="M29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1643,7 +1650,7 @@
       </c>
       <c r="D7" s="74"/>
       <c r="E7" s="79"/>
-      <c r="F7" s="1"/>
+      <c r="F7" s="79"/>
       <c r="G7" s="1"/>
       <c r="H7" s="1"/>
       <c r="I7" s="72"/>
@@ -1931,7 +1938,7 @@
       </c>
       <c r="D15" s="8"/>
       <c r="E15" s="75"/>
-      <c r="F15" s="1"/>
+      <c r="F15" s="75"/>
       <c r="G15" s="1"/>
       <c r="H15" s="1"/>
       <c r="I15" s="72"/>
@@ -1967,7 +1974,7 @@
       </c>
       <c r="D16" s="8"/>
       <c r="E16" s="1"/>
-      <c r="F16" s="1"/>
+      <c r="F16" s="75"/>
       <c r="G16" s="1"/>
       <c r="H16" s="1"/>
       <c r="I16" s="72"/>
@@ -2363,7 +2370,7 @@
       </c>
       <c r="D27" s="8"/>
       <c r="E27" s="1"/>
-      <c r="F27" s="1"/>
+      <c r="F27" s="80"/>
       <c r="G27" s="1"/>
       <c r="H27" s="1"/>
       <c r="I27" s="72"/>

--- a/Tidsplan - Realiseret.xlsx
+++ b/Tidsplan - Realiseret.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mg\Desktop\Svendeproeve\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EED1E890-31C1-4CD7-8967-D7AB21B9969B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{40D34EED-3ED6-4DFD-AA0C-8F9405BFE4A1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1393,7 +1393,7 @@
   <dimension ref="B1:AG29"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M29" sqref="M29"/>
+      <selection activeCell="G29" sqref="G29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2299,8 +2299,8 @@
       <c r="D25" s="8"/>
       <c r="E25" s="1"/>
       <c r="F25" s="1"/>
-      <c r="G25" s="1"/>
-      <c r="H25" s="1"/>
+      <c r="G25" s="77"/>
+      <c r="H25" s="77"/>
       <c r="I25" s="72"/>
       <c r="J25" s="72"/>
       <c r="K25" s="1"/>
@@ -2372,7 +2372,7 @@
       <c r="E27" s="1"/>
       <c r="F27" s="80"/>
       <c r="G27" s="1"/>
-      <c r="H27" s="1"/>
+      <c r="H27" s="80"/>
       <c r="I27" s="72"/>
       <c r="J27" s="72"/>
       <c r="K27" s="1"/>
@@ -2407,8 +2407,8 @@
       <c r="D28" s="8"/>
       <c r="E28" s="1"/>
       <c r="F28" s="1"/>
-      <c r="G28" s="1"/>
-      <c r="H28" s="1"/>
+      <c r="G28" s="80"/>
+      <c r="H28" s="80"/>
       <c r="I28" s="72"/>
       <c r="J28" s="72"/>
       <c r="K28" s="1"/>

--- a/Tidsplan - Realiseret.xlsx
+++ b/Tidsplan - Realiseret.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mg\Desktop\Svendeproeve\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{40D34EED-3ED6-4DFD-AA0C-8F9405BFE4A1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{702F8365-9D86-47CA-902E-B119558B2B67}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -168,9 +168,6 @@
     <t>Forord</t>
   </si>
   <si>
-    <t>Metode- og teknolgivalg</t>
-  </si>
-  <si>
     <t>Estimeret Tidsplan</t>
   </si>
   <si>
@@ -184,6 +181,9 @@
   </si>
   <si>
     <t>Overordnet arkitektur</t>
+  </si>
+  <si>
+    <t>Metode- og teknologivalg</t>
   </si>
 </sst>
 </file>
@@ -210,7 +210,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="60">
+  <fills count="62">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -703,6 +703,18 @@
       <patternFill patternType="darkUp">
         <fgColor theme="5" tint="0.39994506668294322"/>
         <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="darkUp">
+        <fgColor theme="8" tint="0.39994506668294322"/>
+        <bgColor theme="0" tint="-0.249977111117893"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="darkUp">
+        <fgColor theme="5" tint="0.39994506668294322"/>
+        <bgColor theme="0" tint="-0.249977111117893"/>
       </patternFill>
     </fill>
   </fills>
@@ -1012,7 +1024,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="81">
+  <cellXfs count="83">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
@@ -1104,6 +1116,8 @@
     <xf numFmtId="0" fontId="0" fillId="55" borderId="22" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="55" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="59" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="60" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="61" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1393,15 +1407,16 @@
   <dimension ref="B1:AG29"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G29" sqref="G29"/>
+      <selection activeCell="AG1" sqref="D1:AG1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="2.85546875" customWidth="1"/>
     <col min="2" max="2" width="3.140625" customWidth="1"/>
-    <col min="3" max="3" width="23" bestFit="1" customWidth="1"/>
-    <col min="4" max="33" width="3.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="24.140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="32" width="3.7109375" bestFit="1" customWidth="1"/>
+    <col min="33" max="33" width="3.7109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:33" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
@@ -1718,7 +1733,7 @@
     <row r="9" spans="2:33" x14ac:dyDescent="0.25">
       <c r="B9" s="64"/>
       <c r="C9" s="65" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D9" s="78"/>
       <c r="E9" s="79"/>
@@ -1754,7 +1769,7 @@
     <row r="10" spans="2:33" x14ac:dyDescent="0.25">
       <c r="B10" s="64"/>
       <c r="C10" s="65" t="s">
-        <v>47</v>
+        <v>52</v>
       </c>
       <c r="D10" s="8"/>
       <c r="E10" s="1"/>
@@ -1790,7 +1805,7 @@
     <row r="11" spans="2:33" x14ac:dyDescent="0.25">
       <c r="B11" s="64"/>
       <c r="C11" s="65" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D11" s="8"/>
       <c r="E11" s="1"/>
@@ -2006,7 +2021,7 @@
     <row r="17" spans="2:33" x14ac:dyDescent="0.25">
       <c r="B17" s="64"/>
       <c r="C17" s="65" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D17" s="8"/>
       <c r="E17" s="1"/>
@@ -2015,7 +2030,7 @@
       <c r="H17" s="1"/>
       <c r="I17" s="72"/>
       <c r="J17" s="72"/>
-      <c r="K17" s="1"/>
+      <c r="K17" s="75"/>
       <c r="L17" s="1"/>
       <c r="M17" s="1"/>
       <c r="N17" s="1"/>
@@ -2042,7 +2057,7 @@
     <row r="18" spans="2:33" x14ac:dyDescent="0.25">
       <c r="B18" s="64"/>
       <c r="C18" s="65" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D18" s="8"/>
       <c r="E18" s="1"/>
@@ -2078,7 +2093,7 @@
     <row r="19" spans="2:33" x14ac:dyDescent="0.25">
       <c r="B19" s="64"/>
       <c r="C19" s="65" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D19" s="8"/>
       <c r="E19" s="1"/>
@@ -2301,7 +2316,7 @@
       <c r="F25" s="1"/>
       <c r="G25" s="77"/>
       <c r="H25" s="77"/>
-      <c r="I25" s="72"/>
+      <c r="I25" s="81"/>
       <c r="J25" s="72"/>
       <c r="K25" s="1"/>
       <c r="L25" s="1"/>
@@ -2409,9 +2424,9 @@
       <c r="F28" s="1"/>
       <c r="G28" s="80"/>
       <c r="H28" s="80"/>
-      <c r="I28" s="72"/>
+      <c r="I28" s="82"/>
       <c r="J28" s="72"/>
-      <c r="K28" s="1"/>
+      <c r="K28" s="80"/>
       <c r="L28" s="1"/>
       <c r="M28" s="1"/>
       <c r="N28" s="1"/>

--- a/Tidsplan - Realiseret.xlsx
+++ b/Tidsplan - Realiseret.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mg\Desktop\Svendeproeve\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{702F8365-9D86-47CA-902E-B119558B2B67}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{15EA2E15-D4C6-4478-94BD-3EACF3F5C60C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -147,9 +147,6 @@
     <t>Opsætning</t>
   </si>
   <si>
-    <t>Presentation a data</t>
-  </si>
-  <si>
     <t>Datahåntering</t>
   </si>
   <si>
@@ -184,6 +181,9 @@
   </si>
   <si>
     <t>Metode- og teknologivalg</t>
+  </si>
+  <si>
+    <t>Presentation af data</t>
   </si>
 </sst>
 </file>
@@ -1407,7 +1407,7 @@
   <dimension ref="B1:AG29"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="AG1" sqref="D1:AG1048576"/>
+      <selection activeCell="C29" sqref="C29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1553,7 +1553,7 @@
     <row r="4" spans="2:33" x14ac:dyDescent="0.25">
       <c r="B4" s="64"/>
       <c r="C4" s="65" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D4" s="8"/>
       <c r="E4" s="1"/>
@@ -1589,7 +1589,7 @@
     <row r="5" spans="2:33" x14ac:dyDescent="0.25">
       <c r="B5" s="64"/>
       <c r="C5" s="65" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D5" s="8"/>
       <c r="E5" s="1"/>
@@ -1625,7 +1625,7 @@
     <row r="6" spans="2:33" x14ac:dyDescent="0.25">
       <c r="B6" s="64"/>
       <c r="C6" s="65" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D6" s="8"/>
       <c r="E6" s="1"/>
@@ -1733,7 +1733,7 @@
     <row r="9" spans="2:33" x14ac:dyDescent="0.25">
       <c r="B9" s="64"/>
       <c r="C9" s="65" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D9" s="78"/>
       <c r="E9" s="79"/>
@@ -1769,7 +1769,7 @@
     <row r="10" spans="2:33" x14ac:dyDescent="0.25">
       <c r="B10" s="64"/>
       <c r="C10" s="65" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D10" s="8"/>
       <c r="E10" s="1"/>
@@ -1779,7 +1779,7 @@
       <c r="I10" s="72"/>
       <c r="J10" s="72"/>
       <c r="K10" s="1"/>
-      <c r="L10" s="1"/>
+      <c r="L10" s="79"/>
       <c r="M10" s="1"/>
       <c r="N10" s="1"/>
       <c r="O10" s="1"/>
@@ -1805,7 +1805,7 @@
     <row r="11" spans="2:33" x14ac:dyDescent="0.25">
       <c r="B11" s="64"/>
       <c r="C11" s="65" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D11" s="8"/>
       <c r="E11" s="1"/>
@@ -1877,7 +1877,7 @@
     <row r="13" spans="2:33" x14ac:dyDescent="0.25">
       <c r="B13" s="64"/>
       <c r="C13" s="65" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D13" s="8"/>
       <c r="E13" s="1"/>
@@ -1913,7 +1913,7 @@
     <row r="14" spans="2:33" x14ac:dyDescent="0.25">
       <c r="B14" s="64"/>
       <c r="C14" s="65" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D14" s="8"/>
       <c r="E14" s="1"/>
@@ -2021,7 +2021,7 @@
     <row r="17" spans="2:33" x14ac:dyDescent="0.25">
       <c r="B17" s="64"/>
       <c r="C17" s="65" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D17" s="8"/>
       <c r="E17" s="1"/>
@@ -2057,7 +2057,7 @@
     <row r="18" spans="2:33" x14ac:dyDescent="0.25">
       <c r="B18" s="64"/>
       <c r="C18" s="65" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D18" s="8"/>
       <c r="E18" s="1"/>
@@ -2068,7 +2068,7 @@
       <c r="J18" s="72"/>
       <c r="K18" s="1"/>
       <c r="L18" s="1"/>
-      <c r="M18" s="1"/>
+      <c r="M18" s="75"/>
       <c r="N18" s="1"/>
       <c r="O18" s="1"/>
       <c r="P18" s="72"/>
@@ -2093,7 +2093,7 @@
     <row r="19" spans="2:33" x14ac:dyDescent="0.25">
       <c r="B19" s="64"/>
       <c r="C19" s="65" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D19" s="8"/>
       <c r="E19" s="1"/>
@@ -2165,7 +2165,7 @@
     <row r="21" spans="2:33" x14ac:dyDescent="0.25">
       <c r="B21" s="64"/>
       <c r="C21" s="65" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D21" s="8"/>
       <c r="E21" s="76"/>
@@ -2309,7 +2309,7 @@
     <row r="25" spans="2:33" x14ac:dyDescent="0.25">
       <c r="B25" s="64"/>
       <c r="C25" s="65" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D25" s="8"/>
       <c r="E25" s="1"/>
@@ -2320,7 +2320,7 @@
       <c r="J25" s="72"/>
       <c r="K25" s="1"/>
       <c r="L25" s="1"/>
-      <c r="M25" s="1"/>
+      <c r="M25" s="77"/>
       <c r="N25" s="1"/>
       <c r="O25" s="1"/>
       <c r="P25" s="72"/>
@@ -2417,7 +2417,7 @@
     <row r="28" spans="2:33" x14ac:dyDescent="0.25">
       <c r="B28" s="64"/>
       <c r="C28" s="65" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D28" s="8"/>
       <c r="E28" s="1"/>
@@ -2453,7 +2453,7 @@
     <row r="29" spans="2:33" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B29" s="66"/>
       <c r="C29" s="67" t="s">
-        <v>40</v>
+        <v>52</v>
       </c>
       <c r="D29" s="9"/>
       <c r="E29" s="3"/>

--- a/Tidsplan - Realiseret.xlsx
+++ b/Tidsplan - Realiseret.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mg\Desktop\Svendeproeve\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{15EA2E15-D4C6-4478-94BD-3EACF3F5C60C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8A4A4956-28D5-4B6A-A5FC-BC1B5E24077B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1407,7 +1407,7 @@
   <dimension ref="B1:AG29"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C29" sqref="C29"/>
+      <selection activeCell="O28" sqref="O28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2321,7 +2321,7 @@
       <c r="K25" s="1"/>
       <c r="L25" s="1"/>
       <c r="M25" s="77"/>
-      <c r="N25" s="1"/>
+      <c r="N25" s="77"/>
       <c r="O25" s="1"/>
       <c r="P25" s="72"/>
       <c r="Q25" s="72"/>
@@ -2429,7 +2429,7 @@
       <c r="K28" s="80"/>
       <c r="L28" s="1"/>
       <c r="M28" s="1"/>
-      <c r="N28" s="1"/>
+      <c r="N28" s="80"/>
       <c r="O28" s="1"/>
       <c r="P28" s="72"/>
       <c r="Q28" s="72"/>
@@ -2465,7 +2465,7 @@
       <c r="K29" s="3"/>
       <c r="L29" s="3"/>
       <c r="M29" s="3"/>
-      <c r="N29" s="3"/>
+      <c r="N29" s="80"/>
       <c r="O29" s="3"/>
       <c r="P29" s="73"/>
       <c r="Q29" s="73"/>

--- a/Tidsplan - Realiseret.xlsx
+++ b/Tidsplan - Realiseret.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mg\Desktop\Svendeproeve\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8A4A4956-28D5-4B6A-A5FC-BC1B5E24077B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8A9CDC84-DC8B-428B-B9E5-96CEF755DCD9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1024,7 +1024,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="83">
+  <cellXfs count="84">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
@@ -1118,6 +1118,7 @@
     <xf numFmtId="0" fontId="0" fillId="59" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="60" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="61" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="59" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1407,7 +1408,7 @@
   <dimension ref="B1:AG29"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="O28" sqref="O28"/>
+      <selection activeCell="P18" sqref="P17:P18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2322,7 +2323,7 @@
       <c r="L25" s="1"/>
       <c r="M25" s="77"/>
       <c r="N25" s="77"/>
-      <c r="O25" s="1"/>
+      <c r="O25" s="77"/>
       <c r="P25" s="72"/>
       <c r="Q25" s="72"/>
       <c r="R25" s="1"/>
@@ -2430,7 +2431,7 @@
       <c r="L28" s="1"/>
       <c r="M28" s="1"/>
       <c r="N28" s="80"/>
-      <c r="O28" s="1"/>
+      <c r="O28" s="80"/>
       <c r="P28" s="72"/>
       <c r="Q28" s="72"/>
       <c r="R28" s="1"/>
@@ -2465,8 +2466,8 @@
       <c r="K29" s="3"/>
       <c r="L29" s="3"/>
       <c r="M29" s="3"/>
-      <c r="N29" s="80"/>
-      <c r="O29" s="3"/>
+      <c r="N29" s="83"/>
+      <c r="O29" s="83"/>
       <c r="P29" s="73"/>
       <c r="Q29" s="73"/>
       <c r="R29" s="3"/>

--- a/Tidsplan - Realiseret.xlsx
+++ b/Tidsplan - Realiseret.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mg\Desktop\Svendeproeve\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8A9CDC84-DC8B-428B-B9E5-96CEF755DCD9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{84CEDB15-434F-4CAC-9F1D-3777F0045001}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -210,7 +210,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="62">
+  <fills count="65">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -715,6 +715,24 @@
       <patternFill patternType="darkUp">
         <fgColor theme="5" tint="0.39994506668294322"/>
         <bgColor theme="0" tint="-0.249977111117893"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="darkUp">
+        <fgColor theme="5" tint="0.39994506668294322"/>
+        <bgColor theme="0" tint="-0.499984740745262"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="darkUp">
+        <fgColor theme="9" tint="0.39994506668294322"/>
+        <bgColor theme="0" tint="-0.499984740745262"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="darkUp">
+        <fgColor theme="7" tint="0.39994506668294322"/>
+        <bgColor theme="0" tint="-0.499984740745262"/>
       </patternFill>
     </fill>
   </fills>
@@ -1024,7 +1042,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="84">
+  <cellXfs count="87">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
@@ -1119,6 +1137,9 @@
     <xf numFmtId="0" fontId="0" fillId="60" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="61" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="59" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="62" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="63" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="64" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1408,7 +1429,7 @@
   <dimension ref="B1:AG29"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="P18" sqref="P17:P18"/>
+      <selection activeCell="S20" sqref="S20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1784,7 +1805,7 @@
       <c r="M10" s="1"/>
       <c r="N10" s="1"/>
       <c r="O10" s="1"/>
-      <c r="P10" s="72"/>
+      <c r="P10" s="86"/>
       <c r="Q10" s="72"/>
       <c r="R10" s="1"/>
       <c r="S10" s="1"/>
@@ -2036,7 +2057,7 @@
       <c r="M17" s="1"/>
       <c r="N17" s="1"/>
       <c r="O17" s="1"/>
-      <c r="P17" s="72"/>
+      <c r="P17" s="85"/>
       <c r="Q17" s="72"/>
       <c r="R17" s="1"/>
       <c r="S17" s="1"/>
@@ -2072,7 +2093,7 @@
       <c r="M18" s="75"/>
       <c r="N18" s="1"/>
       <c r="O18" s="1"/>
-      <c r="P18" s="72"/>
+      <c r="P18" s="85"/>
       <c r="Q18" s="72"/>
       <c r="R18" s="1"/>
       <c r="S18" s="1"/>
@@ -2432,8 +2453,8 @@
       <c r="M28" s="1"/>
       <c r="N28" s="80"/>
       <c r="O28" s="80"/>
-      <c r="P28" s="72"/>
-      <c r="Q28" s="72"/>
+      <c r="P28" s="84"/>
+      <c r="Q28" s="84"/>
       <c r="R28" s="1"/>
       <c r="S28" s="1"/>
       <c r="T28" s="1"/>

--- a/Tidsplan - Realiseret.xlsx
+++ b/Tidsplan - Realiseret.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mg\Desktop\Svendeproeve\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{84CEDB15-434F-4CAC-9F1D-3777F0045001}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{728153C3-51B9-42D3-A09A-BA4DECA773CF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1429,7 +1429,7 @@
   <dimension ref="B1:AG29"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="S20" sqref="S20"/>
+      <selection activeCell="R29" sqref="R29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2491,7 +2491,7 @@
       <c r="O29" s="83"/>
       <c r="P29" s="73"/>
       <c r="Q29" s="73"/>
-      <c r="R29" s="3"/>
+      <c r="R29" s="83"/>
       <c r="S29" s="3"/>
       <c r="T29" s="3"/>
       <c r="U29" s="3"/>

--- a/Tidsplan - Realiseret.xlsx
+++ b/Tidsplan - Realiseret.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mg\Desktop\Svendeproeve\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{728153C3-51B9-42D3-A09A-BA4DECA773CF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{70B54183-B3E3-4424-9A89-7762B7F4982D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1429,7 +1429,7 @@
   <dimension ref="B1:AG29"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="R29" sqref="R29"/>
+      <selection activeCell="T28" sqref="T28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2348,7 +2348,7 @@
       <c r="P25" s="72"/>
       <c r="Q25" s="72"/>
       <c r="R25" s="1"/>
-      <c r="S25" s="1"/>
+      <c r="S25" s="77"/>
       <c r="T25" s="1"/>
       <c r="U25" s="1"/>
       <c r="V25" s="1"/>
@@ -2456,7 +2456,7 @@
       <c r="P28" s="84"/>
       <c r="Q28" s="84"/>
       <c r="R28" s="1"/>
-      <c r="S28" s="1"/>
+      <c r="S28" s="80"/>
       <c r="T28" s="1"/>
       <c r="U28" s="1"/>
       <c r="V28" s="1"/>
@@ -2492,7 +2492,7 @@
       <c r="P29" s="73"/>
       <c r="Q29" s="73"/>
       <c r="R29" s="83"/>
-      <c r="S29" s="3"/>
+      <c r="S29" s="83"/>
       <c r="T29" s="3"/>
       <c r="U29" s="3"/>
       <c r="V29" s="3"/>

--- a/Tidsplan - Realiseret.xlsx
+++ b/Tidsplan - Realiseret.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24931"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25028"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mg\Desktop\Svendeproeve\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{70B54183-B3E3-4424-9A89-7762B7F4982D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5A7CDDD4-7AD2-4F70-BC22-5E286B55517D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1429,7 +1429,7 @@
   <dimension ref="B1:AG29"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="T28" sqref="T28"/>
+      <selection activeCell="U28" sqref="U28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2349,8 +2349,8 @@
       <c r="Q25" s="72"/>
       <c r="R25" s="1"/>
       <c r="S25" s="77"/>
-      <c r="T25" s="1"/>
-      <c r="U25" s="1"/>
+      <c r="T25" s="77"/>
+      <c r="U25" s="77"/>
       <c r="V25" s="1"/>
       <c r="W25" s="72"/>
       <c r="X25" s="72"/>
@@ -2493,8 +2493,8 @@
       <c r="Q29" s="73"/>
       <c r="R29" s="83"/>
       <c r="S29" s="83"/>
-      <c r="T29" s="3"/>
-      <c r="U29" s="3"/>
+      <c r="T29" s="83"/>
+      <c r="U29" s="80"/>
       <c r="V29" s="3"/>
       <c r="W29" s="73"/>
       <c r="X29" s="73"/>

--- a/Tidsplan - Realiseret.xlsx
+++ b/Tidsplan - Realiseret.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mg\Desktop\Svendeproeve\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5A7CDDD4-7AD2-4F70-BC22-5E286B55517D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CD0C3D37-867B-4420-99C4-61CE0B12167B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="4545" yWindow="3945" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Ark1" sheetId="1" r:id="rId1"/>
@@ -210,7 +210,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="65">
+  <fills count="67">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -733,6 +733,18 @@
       <patternFill patternType="darkUp">
         <fgColor theme="7" tint="0.39994506668294322"/>
         <bgColor theme="0" tint="-0.499984740745262"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="darkUp">
+        <fgColor theme="4" tint="0.39994506668294322"/>
+        <bgColor theme="0" tint="-0.34998626667073579"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="darkUp">
+        <fgColor theme="5" tint="0.39994506668294322"/>
+        <bgColor theme="0" tint="-0.34998626667073579"/>
       </patternFill>
     </fill>
   </fills>
@@ -1042,7 +1054,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="87">
+  <cellXfs count="89">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
@@ -1140,6 +1152,8 @@
     <xf numFmtId="0" fontId="0" fillId="62" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="63" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="64" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="65" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="66" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1429,7 +1443,7 @@
   <dimension ref="B1:AG29"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="U28" sqref="U28"/>
+      <selection activeCell="X18" sqref="X18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1597,7 +1611,7 @@
       <c r="U4" s="1"/>
       <c r="V4" s="1"/>
       <c r="W4" s="72"/>
-      <c r="X4" s="72"/>
+      <c r="X4" s="86"/>
       <c r="Y4" s="1"/>
       <c r="Z4" s="1"/>
       <c r="AA4" s="1"/>
@@ -1633,7 +1647,7 @@
       <c r="U5" s="1"/>
       <c r="V5" s="1"/>
       <c r="W5" s="72"/>
-      <c r="X5" s="72"/>
+      <c r="X5" s="86"/>
       <c r="Y5" s="1"/>
       <c r="Z5" s="1"/>
       <c r="AA5" s="1"/>
@@ -1669,7 +1683,7 @@
       <c r="U6" s="1"/>
       <c r="V6" s="1"/>
       <c r="W6" s="72"/>
-      <c r="X6" s="72"/>
+      <c r="X6" s="86"/>
       <c r="Y6" s="1"/>
       <c r="Z6" s="1"/>
       <c r="AA6" s="1"/>
@@ -1777,7 +1791,7 @@
       <c r="U9" s="1"/>
       <c r="V9" s="1"/>
       <c r="W9" s="72"/>
-      <c r="X9" s="72"/>
+      <c r="X9" s="86"/>
       <c r="Y9" s="1"/>
       <c r="Z9" s="1"/>
       <c r="AA9" s="1"/>
@@ -1813,7 +1827,7 @@
       <c r="U10" s="1"/>
       <c r="V10" s="1"/>
       <c r="W10" s="72"/>
-      <c r="X10" s="72"/>
+      <c r="X10" s="86"/>
       <c r="Y10" s="1"/>
       <c r="Z10" s="1"/>
       <c r="AA10" s="1"/>
@@ -1849,7 +1863,7 @@
       <c r="U11" s="1"/>
       <c r="V11" s="1"/>
       <c r="W11" s="72"/>
-      <c r="X11" s="72"/>
+      <c r="X11" s="86"/>
       <c r="Y11" s="1"/>
       <c r="Z11" s="1"/>
       <c r="AA11" s="1"/>
@@ -1919,8 +1933,8 @@
       <c r="S13" s="1"/>
       <c r="T13" s="1"/>
       <c r="U13" s="1"/>
-      <c r="V13" s="1"/>
-      <c r="W13" s="72"/>
+      <c r="V13" s="75"/>
+      <c r="W13" s="85"/>
       <c r="X13" s="72"/>
       <c r="Y13" s="1"/>
       <c r="Z13" s="1"/>
@@ -1957,7 +1971,7 @@
       <c r="U14" s="1"/>
       <c r="V14" s="1"/>
       <c r="W14" s="72"/>
-      <c r="X14" s="72"/>
+      <c r="X14" s="85"/>
       <c r="Y14" s="1"/>
       <c r="Z14" s="1"/>
       <c r="AA14" s="1"/>
@@ -2064,8 +2078,8 @@
       <c r="T17" s="1"/>
       <c r="U17" s="1"/>
       <c r="V17" s="1"/>
-      <c r="W17" s="72"/>
-      <c r="X17" s="72"/>
+      <c r="W17" s="85"/>
+      <c r="X17" s="85"/>
       <c r="Y17" s="1"/>
       <c r="Z17" s="1"/>
       <c r="AA17" s="1"/>
@@ -2100,7 +2114,7 @@
       <c r="T18" s="1"/>
       <c r="U18" s="1"/>
       <c r="V18" s="1"/>
-      <c r="W18" s="72"/>
+      <c r="W18" s="85"/>
       <c r="X18" s="72"/>
       <c r="Y18" s="1"/>
       <c r="Z18" s="1"/>
@@ -2136,7 +2150,7 @@
       <c r="T19" s="1"/>
       <c r="U19" s="1"/>
       <c r="V19" s="1"/>
-      <c r="W19" s="72"/>
+      <c r="W19" s="85"/>
       <c r="X19" s="72"/>
       <c r="Y19" s="1"/>
       <c r="Z19" s="1"/>
@@ -2243,8 +2257,8 @@
       <c r="S22" s="1"/>
       <c r="T22" s="1"/>
       <c r="U22" s="1"/>
-      <c r="V22" s="1"/>
-      <c r="W22" s="72"/>
+      <c r="V22" s="76"/>
+      <c r="W22" s="87"/>
       <c r="X22" s="72"/>
       <c r="Y22" s="1"/>
       <c r="Z22" s="1"/>
@@ -2315,8 +2329,8 @@
       <c r="S24" s="1"/>
       <c r="T24" s="1"/>
       <c r="U24" s="1"/>
-      <c r="V24" s="1"/>
-      <c r="W24" s="72"/>
+      <c r="V24" s="77"/>
+      <c r="W24" s="81"/>
       <c r="X24" s="72"/>
       <c r="Y24" s="1"/>
       <c r="Z24" s="1"/>
@@ -2423,8 +2437,8 @@
       <c r="S27" s="1"/>
       <c r="T27" s="1"/>
       <c r="U27" s="1"/>
-      <c r="V27" s="1"/>
-      <c r="W27" s="72"/>
+      <c r="V27" s="80"/>
+      <c r="W27" s="84"/>
       <c r="X27" s="72"/>
       <c r="Y27" s="1"/>
       <c r="Z27" s="1"/>
@@ -2494,9 +2508,9 @@
       <c r="R29" s="83"/>
       <c r="S29" s="83"/>
       <c r="T29" s="83"/>
-      <c r="U29" s="80"/>
-      <c r="V29" s="3"/>
-      <c r="W29" s="73"/>
+      <c r="U29" s="83"/>
+      <c r="V29" s="83"/>
+      <c r="W29" s="88"/>
       <c r="X29" s="73"/>
       <c r="Y29" s="3"/>
       <c r="Z29" s="3"/>

--- a/Tidsplan - Realiseret.xlsx
+++ b/Tidsplan - Realiseret.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mg\Desktop\Svendeproeve\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CD0C3D37-867B-4420-99C4-61CE0B12167B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B7FAF184-0575-47F7-94CC-F5DFC1523534}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4545" yWindow="3945" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Ark1" sheetId="1" r:id="rId1"/>
@@ -1443,7 +1443,7 @@
   <dimension ref="B1:AG29"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="X18" sqref="X18"/>
+      <selection activeCell="AJ6" sqref="AJ6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2511,7 +2511,7 @@
       <c r="U29" s="83"/>
       <c r="V29" s="83"/>
       <c r="W29" s="88"/>
-      <c r="X29" s="73"/>
+      <c r="X29" s="88"/>
       <c r="Y29" s="3"/>
       <c r="Z29" s="3"/>
       <c r="AA29" s="3"/>
